--- a/Apps/YouTubeAnalysis/Analysis/Geography/Step01_TableDataAugmented.xlsx
+++ b/Apps/YouTubeAnalysis/Analysis/Geography/Step01_TableDataAugmented.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="498" uniqueCount="455">
   <si>
     <t>Geography</t>
   </si>
@@ -600,18 +600,12 @@
     <t>00:04:58</t>
   </si>
   <si>
-    <t>00:03:46</t>
-  </si>
-  <si>
     <t>00:04:25</t>
   </si>
   <si>
     <t>00:04:02</t>
   </si>
   <si>
-    <t>00:04:28</t>
-  </si>
-  <si>
     <t>00:04:31</t>
   </si>
   <si>
@@ -621,9 +615,6 @@
     <t>00:04:01</t>
   </si>
   <si>
-    <t>00:04:07</t>
-  </si>
-  <si>
     <t>00:04:20</t>
   </si>
   <si>
@@ -651,21 +642,12 @@
     <t>00:03:18</t>
   </si>
   <si>
-    <t>00:03:37</t>
-  </si>
-  <si>
     <t>00:03:48</t>
   </si>
   <si>
     <t>00:04:29</t>
   </si>
   <si>
-    <t>00:04:04</t>
-  </si>
-  <si>
-    <t>00:04:58</t>
-  </si>
-  <si>
     <t>00:03:31</t>
   </si>
   <si>
@@ -675,9 +657,6 @@
     <t>00:05:04</t>
   </si>
   <si>
-    <t>00:04:05</t>
-  </si>
-  <si>
     <t>00:05:06</t>
   </si>
   <si>
@@ -687,51 +666,27 @@
     <t>00:03:30</t>
   </si>
   <si>
-    <t>00:03:47</t>
-  </si>
-  <si>
-    <t>00:03:58</t>
-  </si>
-  <si>
-    <t>00:04:05</t>
-  </si>
-  <si>
     <t>00:06:21</t>
   </si>
   <si>
     <t>00:04:22</t>
   </si>
   <si>
-    <t>00:03:41</t>
-  </si>
-  <si>
-    <t>00:03:45</t>
-  </si>
-  <si>
     <t>00:04:50</t>
   </si>
   <si>
-    <t>00:03:31</t>
-  </si>
-  <si>
     <t>00:04:13</t>
   </si>
   <si>
     <t>00:03:10</t>
   </si>
   <si>
-    <t>00:04:15</t>
-  </si>
-  <si>
     <t>00:03:43</t>
   </si>
   <si>
     <t>00:03:44</t>
   </si>
   <si>
-    <t>00:03:38</t>
-  </si>
-  <si>
     <t>00:03:42</t>
   </si>
   <si>
@@ -744,42 +699,18 @@
     <t>00:05:16</t>
   </si>
   <si>
-    <t>00:04:25</t>
-  </si>
-  <si>
-    <t>00:04:41</t>
-  </si>
-  <si>
-    <t>00:03:45</t>
-  </si>
-  <si>
-    <t>00:04:58</t>
-  </si>
-  <si>
     <t>00:05:10</t>
   </si>
   <si>
-    <t>00:03:45</t>
-  </si>
-  <si>
     <t>00:05:05</t>
   </si>
   <si>
     <t>00:03:36</t>
   </si>
   <si>
-    <t>00:04:20</t>
-  </si>
-  <si>
     <t>00:04:06</t>
   </si>
   <si>
-    <t>00:03:27</t>
-  </si>
-  <si>
-    <t>00:04:59</t>
-  </si>
-  <si>
     <t>00:06:00</t>
   </si>
   <si>
@@ -789,27 +720,12 @@
     <t>00:05:36</t>
   </si>
   <si>
-    <t>00:04:20</t>
-  </si>
-  <si>
     <t>00:04:16</t>
   </si>
   <si>
-    <t>00:04:02</t>
-  </si>
-  <si>
     <t>00:05:56</t>
   </si>
   <si>
-    <t>00:04:59</t>
-  </si>
-  <si>
-    <t>00:04:53</t>
-  </si>
-  <si>
-    <t>00:05:25</t>
-  </si>
-  <si>
     <t>00:05:18</t>
   </si>
   <si>
@@ -828,12 +744,6 @@
     <t>00:04:35</t>
   </si>
   <si>
-    <t>00:04:49</t>
-  </si>
-  <si>
-    <t>00:05:16</t>
-  </si>
-  <si>
     <t>00:02:10</t>
   </si>
   <si>
@@ -846,33 +756,18 @@
     <t>00:06:29</t>
   </si>
   <si>
-    <t>00:06:21</t>
-  </si>
-  <si>
-    <t>00:05:05</t>
-  </si>
-  <si>
     <t>00:04:46</t>
   </si>
   <si>
     <t>00:03:06</t>
   </si>
   <si>
-    <t>00:04:22</t>
-  </si>
-  <si>
     <t>00:02:42</t>
   </si>
   <si>
     <t>00:03:00</t>
   </si>
   <si>
-    <t>00:04:04</t>
-  </si>
-  <si>
-    <t>00:04:47</t>
-  </si>
-  <si>
     <t>00:01:48</t>
   </si>
   <si>
@@ -891,24 +786,12 @@
     <t>00:01:20</t>
   </si>
   <si>
-    <t>00:03:02</t>
-  </si>
-  <si>
     <t>00:07:35</t>
   </si>
   <si>
     <t>00:07:39</t>
   </si>
   <si>
-    <t>00:05:10</t>
-  </si>
-  <si>
-    <t>00:03:36</t>
-  </si>
-  <si>
-    <t>00:03:37</t>
-  </si>
-  <si>
     <t>00:05:41</t>
   </si>
   <si>
@@ -927,15 +810,9 @@
     <t>00:06:10</t>
   </si>
   <si>
-    <t>00:04:18</t>
-  </si>
-  <si>
     <t>00:01:11</t>
   </si>
   <si>
-    <t>00:03:27</t>
-  </si>
-  <si>
     <t>00:00:33</t>
   </si>
   <si>
@@ -948,9 +825,6 @@
     <t>00:00:29</t>
   </si>
   <si>
-    <t>00:03:56</t>
-  </si>
-  <si>
     <t>00:03:01</t>
   </si>
   <si>
@@ -958,9 +832,6 @@
   </si>
   <si>
     <t>00:00:27</t>
-  </si>
-  <si>
-    <t>00:02:12</t>
   </si>
   <si>
     <t>00:09:01</t>
@@ -1512,7 +1383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1551,19 +1422,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I164"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.2578125" customWidth="true"/>
-    <col min="2" max="2" width="8.16796875" customWidth="true"/>
-    <col min="3" max="3" width="17.44140625" customWidth="true"/>
-    <col min="4" max="4" width="19.2578125" customWidth="true"/>
-    <col min="5" max="5" width="16.07421875" customWidth="true"/>
-    <col min="6" max="6" width="24.16796875" customWidth="true"/>
-    <col min="7" max="7" width="21.07421875" customWidth="true"/>
-    <col min="8" max="8" width="16.34765625" customWidth="true"/>
-    <col min="9" max="9" width="14.34765625" customWidth="true"/>
+    <col min="1" max="1" width="10.7109375" customWidth="true"/>
+    <col min="2" max="2" width="8.140625" customWidth="true"/>
+    <col min="3" max="3" width="18.140625" customWidth="true"/>
+    <col min="4" max="4" width="20.7109375" customWidth="true"/>
+    <col min="5" max="5" width="17.28515625" customWidth="true"/>
+    <col min="6" max="6" width="25.5703125" customWidth="true"/>
+    <col min="7" max="7" width="22.140625" customWidth="true"/>
+    <col min="8" max="8" width="16.42578125" customWidth="true"/>
+    <col min="9" max="9" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1580,19 +1454,19 @@
         <v>166</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2">
@@ -1615,7 +1489,7 @@
         <v>42.713816857992413</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="H2" s="0">
         <v>0.64734680835490166</v>
@@ -1644,7 +1518,7 @@
         <v>9.8841935583312939</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="H3" s="0">
         <v>0.35942759091527593</v>
@@ -1673,7 +1547,7 @@
         <v>5.7913028213150017</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="H4" s="0">
         <v>0.96652932328733832</v>
@@ -1702,7 +1576,7 @@
         <v>5.1215766582441997</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="H5" s="0">
         <v>0.97965969704947953</v>
@@ -1731,7 +1605,7 @@
         <v>3.5577002866641902</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="H6" s="0">
         <v>0.89300977200803</v>
@@ -1760,7 +1634,7 @@
         <v>2.2687247967671524</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="H7" s="0">
         <v>-0.4411214615594698</v>
@@ -1789,7 +1663,7 @@
         <v>1.6716692731973175</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="H8" s="0">
         <v>0.68004563915747807</v>
@@ -1818,7 +1692,7 @@
         <v>1.0712576084087901</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="H9" s="0">
         <v>0.53014936280017655</v>
@@ -1847,7 +1721,7 @@
         <v>1.0734912058738375</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="H10" s="0">
         <v>0.22479353818825659</v>
@@ -1876,7 +1750,7 @@
         <v>1.3049966295049693</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="H11" s="0">
         <v>-0.53336357860394179</v>
@@ -1905,7 +1779,7 @@
         <v>1.2254127828030112</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="H12" s="0">
         <v>0.73080321719751451</v>
@@ -1934,7 +1808,7 @@
         <v>1.0061386760081599</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="H13" s="0">
         <v>0.073486808902540932</v>
@@ -1963,7 +1837,7 @@
         <v>1.0773181050888558</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="H14" s="0">
         <v>0.8068244885200464</v>
@@ -1992,7 +1866,7 @@
         <v>0.96830037768210664</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="H15" s="0">
         <v>-0.013775447453678244</v>
@@ -2021,7 +1895,7 @@
         <v>1.1560395311512006</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="H16" s="0">
         <v>0.90988609358384898</v>
@@ -2050,7 +1924,7 @@
         <v>1.0221801734917682</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="H17" s="0">
         <v>-0.24844768883456289</v>
@@ -2079,7 +1953,7 @@
         <v>0.79844529220536531</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="H18" s="0">
         <v>0.41249985951589235</v>
@@ -2108,7 +1982,7 @@
         <v>0.67571544691643515</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="H19" s="0">
         <v>0.90616513888505967</v>
@@ -2137,7 +2011,7 @@
         <v>0.69274437288514645</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="H20" s="0">
         <v>0.70622421658057644</v>
@@ -2166,7 +2040,7 @@
         <v>0.82717754929325704</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="H21" s="0">
         <v>1.0494343826192463</v>
@@ -2195,7 +2069,7 @@
         <v>0.77778932700954306</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="H22" s="0">
         <v>0.62670858665604146</v>
@@ -2224,7 +2098,7 @@
         <v>0.57124002085699166</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="H23" s="0">
         <v>0.27698431079686076</v>
@@ -2253,7 +2127,7 @@
         <v>0.42071771811796382</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="H24" s="0">
         <v>0.41338112861510184</v>
@@ -2282,7 +2156,7 @@
         <v>0.52119225743474806</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="H25" s="0">
         <v>0.4681069570556427</v>
@@ -2311,7 +2185,7 @@
         <v>0.48495997459835499</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="H26" s="0">
         <v>0.24536404111213933</v>
@@ -2340,7 +2214,7 @@
         <v>0.45916791284306302</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="H27" s="0">
         <v>1.0737965435299164</v>
@@ -2369,7 +2243,7 @@
         <v>0.57568992510110928</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="H28" s="0">
         <v>0.023598300110242488</v>
@@ -2398,7 +2272,7 @@
         <v>0.58524383960415682</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="H29" s="0">
         <v>0.15851078521283249</v>
@@ -2418,7 +2292,7 @@
         <v>2741.4747000000002</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E30" s="0">
         <v>0.4866619730728553</v>
@@ -2427,7 +2301,7 @@
         <v>0.43567994623939243</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="H30" s="0">
         <v>0.80185942822385059</v>
@@ -2447,7 +2321,7 @@
         <v>3188.5459999999998</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E31" s="0">
         <v>0.48409959310748879</v>
@@ -2456,7 +2330,7 @@
         <v>0.50672929787089749</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="H31" s="0">
         <v>0.41360481001203742</v>
@@ -2476,7 +2350,7 @@
         <v>2746.165</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E32" s="0">
         <v>0.45585746632764185</v>
@@ -2485,7 +2359,7 @@
         <v>0.43642533690517032</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="H32" s="0">
         <v>0.68197358220910842</v>
@@ -2505,7 +2379,7 @@
         <v>2929.6703000000002</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E33" s="0">
         <v>0.43916283354018865</v>
@@ -2514,7 +2388,7 @@
         <v>0.46558831960154307</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="H33" s="0">
         <v>0.54185580969207803</v>
@@ -2534,7 +2408,7 @@
         <v>2914.0958000000001</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E34" s="0">
         <v>0.43169948228735266</v>
@@ -2543,7 +2417,7 @@
         <v>0.46311319286675856</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="H34" s="0">
         <v>0.15961036009488144</v>
@@ -2563,7 +2437,7 @@
         <v>2950.7496999999998</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E35" s="0">
         <v>0.4266642378139251</v>
@@ -2572,7 +2446,7 @@
         <v>0.46893829465648651</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="H35" s="0">
         <v>0.93223114257140438</v>
@@ -2592,7 +2466,7 @@
         <v>2528.2899000000002</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E36" s="0">
         <v>0.42155066731535534</v>
@@ -2601,7 +2475,7 @@
         <v>0.40180024557935873</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="H36" s="0">
         <v>0.41688833284039939</v>
@@ -2621,7 +2495,7 @@
         <v>2561.0936000000002</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E37" s="0">
         <v>0.41633639192731703</v>
@@ -2630,7 +2504,7 @@
         <v>0.4070134668622154</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="H37" s="0">
         <v>-0.71384938554961441</v>
@@ -2650,7 +2524,7 @@
         <v>2631.7094999999999</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E38" s="0">
         <v>0.40656801764886757</v>
@@ -2659,7 +2533,7 @@
         <v>0.41823586899331883</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="H38" s="0">
         <v>0.48928361282874305</v>
@@ -2679,7 +2553,7 @@
         <v>2547.8033999999998</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E39" s="0">
         <v>0.39619541403360675</v>
@@ -2688,7 +2562,7 @@
         <v>0.40490136507206909</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="H39" s="0">
         <v>0.88145911320516146</v>
@@ -2708,7 +2582,7 @@
         <v>2767.6230999999998</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E40" s="0">
         <v>0.3957814050435694</v>
@@ -2717,7 +2591,7 @@
         <v>0.43983549562536556</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="H40" s="0">
         <v>0.39089140928584859</v>
@@ -2737,7 +2611,7 @@
         <v>2775.873</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E41" s="0">
         <v>0.38662844953409442</v>
@@ -2746,7 +2620,7 @@
         <v>0.44114658413859548</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="H41" s="0">
         <v>1.0554359241450313</v>
@@ -2766,7 +2640,7 @@
         <v>2698.6952000000001</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E42" s="0">
         <v>0.37754263061759846</v>
@@ -2775,7 +2649,7 @@
         <v>0.4288813534016952</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="H42" s="0">
         <v>0.63189338390506355</v>
@@ -2795,7 +2669,7 @@
         <v>2948.6997000000001</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E43" s="0">
         <v>0.3746557571195</v>
@@ -2804,7 +2678,7 @@
         <v>0.46861250507696189</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="H43" s="0">
         <v>0.98199065407868791</v>
@@ -2824,7 +2698,7 @@
         <v>2852.0985999999998</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E44" s="0">
         <v>0.35307134247674055</v>
@@ -2833,7 +2707,7 @@
         <v>0.45326048958885012</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="H44" s="0">
         <v>-0.0004111821184773441</v>
@@ -2853,7 +2727,7 @@
         <v>2073.9025999999999</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E45" s="0">
         <v>0.34051679958966113</v>
@@ -2862,7 +2736,7 @@
         <v>0.32958822245331532</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="H45" s="0">
         <v>0.40882725043738327</v>
@@ -2882,7 +2756,7 @@
         <v>1577.1342</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E46" s="0">
         <v>0.31953661428371294</v>
@@ -2891,7 +2765,7 @@
         <v>0.25064092091322493</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="H46" s="0">
         <v>0.57985407096894737</v>
@@ -2911,7 +2785,7 @@
         <v>1721.6010000000001</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E47" s="0">
         <v>0.3190890369971861</v>
@@ -2920,7 +2794,7 @@
         <v>0.27359983702409663</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="H47" s="0">
         <v>0.86947926048593493</v>
@@ -2940,7 +2814,7 @@
         <v>1710.5214000000001</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E48" s="0">
         <v>0.30190206919455331</v>
@@ -2949,7 +2823,7 @@
         <v>0.27183904764590028</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="H48" s="0">
         <v>0.55486987471286631</v>
@@ -2969,7 +2843,7 @@
         <v>1902.5782999999999</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E49" s="0">
         <v>0.28463677536677839</v>
@@ -2978,7 +2852,7 @@
         <v>0.30236106554630415</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="H49" s="0">
         <v>1.0807796058671457</v>
@@ -2998,7 +2872,7 @@
         <v>1712.3131000000001</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="E50" s="0">
         <v>0.28220866858736998</v>
@@ -3007,7 +2881,7 @@
         <v>0.2721237877384049</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="H50" s="0">
         <v>0.6876574912643233</v>
@@ -3027,7 +2901,7 @@
         <v>2037.8472999999999</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E51" s="0">
         <v>0.274745317334534</v>
@@ -3036,7 +2910,7 @@
         <v>0.32385825122080858</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="H51" s="0">
         <v>0.81713153041769893</v>
@@ -3056,7 +2930,7 @@
         <v>1375.0677000000001</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E52" s="0">
         <v>0.26146346135684845</v>
@@ -3065,7 +2939,7 @@
         <v>0.21852815990296204</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="H52" s="0">
         <v>0.82314080375207055</v>
@@ -3085,7 +2959,7 @@
         <v>1372.7927</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E53" s="0">
         <v>0.26022143438673634</v>
@@ -3094,7 +2968,7 @@
         <v>0.21816661293056261</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="H53" s="0">
         <v>0.13741071448730963</v>
@@ -3114,7 +2988,7 @@
         <v>1699.5110999999999</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E54" s="0">
         <v>0.22505304909788559</v>
@@ -3123,7 +2997,7 @@
         <v>0.27008927154470935</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="H54" s="0">
         <v>0.82931467908819767</v>
@@ -3143,7 +3017,7 @@
         <v>1192.1121000000001</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E55" s="0">
         <v>0.19558008478008959</v>
@@ -3152,7 +3026,7 @@
         <v>0.18945253649042582</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="H55" s="0">
         <v>0.079776696274048167</v>
@@ -3172,7 +3046,7 @@
         <v>1359.0231000000001</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E56" s="0">
         <v>0.17889664142479964</v>
@@ -3181,7 +3055,7 @@
         <v>0.21597832405533141</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="H56" s="0">
         <v>0.13869306024862743</v>
@@ -3201,7 +3075,7 @@
         <v>983.27819999999997</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E57" s="0">
         <v>0.17543910688637937</v>
@@ -3210,7 +3084,7 @@
         <v>0.15626428845554055</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="H57" s="0">
         <v>0.49558374528295951</v>
@@ -3230,7 +3104,7 @@
         <v>796.68039999999996</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E58" s="0">
         <v>0.15255671811269189</v>
@@ -3239,7 +3113,7 @@
         <v>0.12660984025932379</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="H58" s="0">
         <v>0.84438039609799775</v>
@@ -3259,7 +3133,7 @@
         <v>660.798</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="E59" s="0">
         <v>0.11716454418057773</v>
@@ -3268,7 +3142,7 @@
         <v>0.10501517198575569</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="H59" s="0">
         <v>-0.62264877628297755</v>
@@ -3288,7 +3162,7 @@
         <v>690.39739999999995</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="E60" s="0">
         <v>0.11682886121568256</v>
@@ -3297,7 +3171,7 @@
         <v>0.10971916031755327</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="H60" s="0">
         <v>-0.67048737841551609</v>
@@ -3317,7 +3191,7 @@
         <v>656.94320000000005</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E61" s="0">
         <v>0.10782136832432883</v>
@@ -3326,7 +3200,7 @@
         <v>0.10440256043885228</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="H61" s="0">
         <v>0.76823321672322697</v>
@@ -3346,7 +3220,7 @@
         <v>909.10350000000005</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E62" s="0">
         <v>0.096083653985161027</v>
@@ -3355,7 +3229,7 @@
         <v>0.14447631561438209</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="H62" s="0">
         <v>0.62590404223074969</v>
@@ -3375,7 +3249,7 @@
         <v>597.32489999999996</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E63" s="0">
         <v>0.091540744526913048</v>
@@ -3384,7 +3258,7 @@
         <v>0.094927916102764104</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="H63" s="0">
         <v>0.78714349264944261</v>
@@ -3404,7 +3278,7 @@
         <v>413.75729999999999</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="E64" s="0">
         <v>0.075360825618965815</v>
@@ -3413,7 +3287,7 @@
         <v>0.065755032581608766</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="H64" s="0">
         <v>0.53381181406243894</v>
@@ -3433,7 +3307,7 @@
         <v>414.94850000000002</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E65" s="0">
         <v>0.07396214659856927</v>
@@ -3442,7 +3316,7 @@
         <v>0.065944340165574572</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="H65" s="0">
         <v>0.74584696051203192</v>
@@ -3462,7 +3336,7 @@
         <v>527.86919999999998</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E66" s="0">
         <v>0.073201265211473562</v>
@@ -3471,7 +3345,7 @@
         <v>0.083889894981497015</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="H66" s="0">
         <v>-0.16039518229962571</v>
@@ -3491,7 +3365,7 @@
         <v>379.11439999999999</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="E67" s="0">
         <v>0.072059943130829973</v>
@@ -3500,7 +3374,7 @@
         <v>0.060249522423307243</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="H67" s="0">
         <v>0.84943474743872582</v>
@@ -3520,7 +3394,7 @@
         <v>415.95690000000002</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E68" s="0">
         <v>0.066051218059206426</v>
@@ -3529,7 +3403,7 @@
         <v>0.066104596854351536</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="H68" s="0">
         <v>0.80549110933140033</v>
@@ -3549,7 +3423,7 @@
         <v>265.39729999999997</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E69" s="0">
         <v>0.056204517755614747</v>
@@ -3558,7 +3432,7 @@
         <v>0.042177402328783073</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="H69" s="0">
         <v>0.18660716532460728</v>
@@ -3578,7 +3452,7 @@
         <v>348.6662</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="E70" s="0">
         <v>0.054872975328197238</v>
@@ -3587,7 +3461,7 @@
         <v>0.0554106413134118</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="H70" s="0">
         <v>0.96288833957487541</v>
@@ -3607,7 +3481,7 @@
         <v>252.2413</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E71" s="0">
         <v>0.045473852311132455</v>
@@ -3616,7 +3490,7 @@
         <v>0.040086627836964692</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="H71" s="0">
         <v>0.31801352830603596</v>
@@ -3636,7 +3510,7 @@
         <v>196.41040000000001</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E72" s="0">
         <v>0.035302658474808783</v>
@@ -3645,7 +3519,7 @@
         <v>0.031213883722092182</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="H72" s="0">
         <v>0.21931247129870854</v>
@@ -3665,7 +3539,7 @@
         <v>186.02180000000001</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="E73" s="0">
         <v>0.034217283554981069</v>
@@ -3674,7 +3548,7 @@
         <v>0.029562909270457609</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="H73" s="0">
         <v>0.31607181460660722</v>
@@ -3694,7 +3568,7 @@
         <v>186.7895</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E74" s="0">
         <v>0.033814463997106858</v>
@@ -3703,7 +3577,7 @@
         <v>0.029684913494945977</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>405</v>
+        <v>362</v>
       </c>
       <c r="H74" s="0">
         <v>0.38247084141679921</v>
@@ -3723,7 +3597,7 @@
         <v>305.7928</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E75" s="0">
         <v>0.032986446017032101</v>
@@ -3732,7 +3606,7 @@
         <v>0.048597125723754908</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="H75" s="0">
         <v>0.023969182576291284</v>
@@ -3752,7 +3626,7 @@
         <v>205.01439999999999</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="E76" s="0">
         <v>0.031352788921208942</v>
@@ -3761,7 +3635,7 @@
         <v>0.032581246425619492</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="H76" s="0">
         <v>-0.031961149940928441</v>
@@ -3781,7 +3655,7 @@
         <v>225.02619999999999</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E77" s="0">
         <v>0.028667325202047577</v>
@@ -3790,7 +3664,7 @@
         <v>0.035761556624416317</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="H77" s="0">
         <v>-0.33188200180884547</v>
@@ -3810,7 +3684,7 @@
         <v>173.88829999999999</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="E78" s="0">
         <v>0.026407059905086759</v>
@@ -3819,7 +3693,7 @@
         <v>0.027634632264036334</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="H78" s="0">
         <v>0.5914382750000392</v>
@@ -3839,7 +3713,7 @@
         <v>163.69589999999999</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="E79" s="0">
         <v>0.023385913221030223</v>
@@ -3848,7 +3722,7 @@
         <v>0.026014838258988471</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="H79" s="0">
         <v>0.59087634879406714</v>
@@ -3868,7 +3742,7 @@
         <v>100.14830000000001</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E80" s="0">
         <v>0.017914280893238942</v>
@@ -3877,7 +3751,7 @@
         <v>0.015915742705911725</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="H80" s="0">
         <v>0.5659737641338094</v>
@@ -3897,7 +3771,7 @@
         <v>131.81729999999999</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="E81" s="0">
         <v>0.017802386571607216</v>
@@ -3906,7 +3780,7 @@
         <v>0.020948635483457809</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="H81" s="0">
         <v>-0.11116050875170941</v>
@@ -3926,7 +3800,7 @@
         <v>119.163</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="E82" s="0">
         <v>0.015463795249504196</v>
@@ -3935,7 +3809,7 @@
         <v>0.018937592031662634</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="H82" s="0">
         <v>-0.22922974626780568</v>
@@ -3955,7 +3829,7 @@
         <v>82.057000000000002</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="E83" s="0">
         <v>0.014646966701592615</v>
@@ -3964,7 +3838,7 @@
         <v>0.013040641720518456</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="H83" s="0">
         <v>0.44252519497026377</v>
@@ -3984,7 +3858,7 @@
         <v>105.28789999999999</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E84" s="0">
         <v>0.013874895882333722</v>
@@ -3993,7 +3867,7 @@
         <v>0.016732536912216812</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="H84" s="0">
         <v>-0.033864239504010539</v>
@@ -4013,7 +3887,7 @@
         <v>72.884600000000006</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="E85" s="0">
         <v>0.013561591781764895</v>
@@ -4022,7 +3896,7 @@
         <v>0.011582947896502426</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="H85" s="0">
         <v>0.45963420384195869</v>
@@ -4042,7 +3916,7 @@
         <v>86.978300000000004</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="E86" s="0">
         <v>0.013427318595806828</v>
@@ -4051,7 +3925,7 @@
         <v>0.013822743309647811</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="H86" s="0">
         <v>0.83809965425177102</v>
@@ -4071,7 +3945,7 @@
         <v>81.215900000000005</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="E87" s="0">
         <v>0.013259477113359243</v>
@@ -4080,7 +3954,7 @@
         <v>0.012906972639865642</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="H87" s="0">
         <v>0.37546540395855926</v>
@@ -4100,7 +3974,7 @@
         <v>67.337500000000006</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="E88" s="0">
         <v>0.01310282506307483</v>
@@ -4109,7 +3983,7 @@
         <v>0.01070139307865766</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="H88" s="0">
         <v>0.51158497622512111</v>
@@ -4129,7 +4003,7 @@
         <v>91.319000000000003</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="E89" s="0">
         <v>0.012297185947326419</v>
@@ -4138,7 +4012,7 @@
         <v>0.014512574932985911</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="H89" s="0">
         <v>0.6130715612653389</v>
@@ -4158,7 +4032,7 @@
         <v>107.5706</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="E90" s="0">
         <v>0.012017450143247111</v>
@@ -4167,7 +4041,7 @@
         <v>0.017095307582061282</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="H90" s="0">
         <v>-0.38970538824594836</v>
@@ -4187,7 +4061,7 @@
         <v>69.293300000000002</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="E91" s="0">
         <v>0.011111106138030149</v>
@@ -4196,7 +4070,7 @@
         <v>0.011012212229698887</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="H91" s="0">
         <v>1.0226804225016428</v>
@@ -4216,7 +4090,7 @@
         <v>82.926100000000005</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="E92" s="0">
         <v>0.0099138368965707088</v>
@@ -4225,7 +4099,7 @@
         <v>0.013178760610062342</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="H92" s="0">
         <v>0.12862591385666156</v>
@@ -4245,7 +4119,7 @@
         <v>61.4771</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="E93" s="0">
         <v>0.0094998279065333299</v>
@@ -4254,7 +4128,7 @@
         <v>0.0097700480777567454</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="H93" s="0">
         <v>-0.35514664732598422</v>
@@ -4274,7 +4148,7 @@
         <v>54.969999999999999</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E94" s="0">
         <v>0.0086270521978058859</v>
@@ -4283,7 +4157,7 @@
         <v>0.0087359283836467277</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="H94" s="0">
         <v>0.60741079527600561</v>
@@ -4303,7 +4177,7 @@
         <v>48.586100000000002</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>260</v>
+        <v>196</v>
       </c>
       <c r="E95" s="0">
         <v>0.0080563911574840965</v>
@@ -4312,7 +4186,7 @@
         <v>0.0077213878486574183</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="H95" s="0">
         <v>0.76647680463048251</v>
@@ -4332,7 +4206,7 @@
         <v>61.376800000000003</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="E96" s="0">
         <v>0.0069262585090036884</v>
@@ -4341,7 +4215,7 @@
         <v>0.0097541082266219478</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="H96" s="0">
         <v>-0.28934405188107626</v>
@@ -4361,7 +4235,7 @@
         <v>49.203200000000002</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="E97" s="0">
         <v>0.0066129544084348622</v>
@@ -4370,7 +4244,7 @@
         <v>0.0078194584581816762</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="H97" s="0">
         <v>0.22449833319857426</v>
@@ -4390,7 +4264,7 @@
         <v>48.046300000000002</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="E98" s="0">
         <v>0.0066017649762716898</v>
@@ -4399,7 +4273,7 @@
         <v>0.0076356018901074362</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="H98" s="0">
         <v>0.99273690808260484</v>
@@ -4419,7 +4293,7 @@
         <v>51.548999999999999</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="E99" s="0">
         <v>0.0063779763330082421</v>
@@ -4428,7 +4302,7 @@
         <v>0.0081922570902056603</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="H99" s="0">
         <v>-0.40068640648755099</v>
@@ -4448,7 +4322,7 @@
         <v>39.846899999999998</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="E100" s="0">
         <v>0.005046433905590733</v>
@@ -4457,7 +4331,7 @@
         <v>0.0063325389250560816</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
       <c r="H100" s="0">
         <v>-0.2843168229569244</v>
@@ -4477,7 +4351,7 @@
         <v>25.135000000000002</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="E101" s="0">
         <v>0.0050240550412643881</v>
@@ -4486,7 +4360,7 @@
         <v>0.0039944980884657182</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="H101" s="0">
         <v>0.45257110070523288</v>
@@ -4506,7 +4380,7 @@
         <v>22.044899999999998</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="E102" s="0">
         <v>0.0050128656091012157</v>
@@ -4515,7 +4389,7 @@
         <v>0.0035034140008123292</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="H102" s="0">
         <v>0.71826114156634302</v>
@@ -4535,7 +4409,7 @@
         <v>20.653400000000001</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="E103" s="0">
         <v>0.0044422045687794254</v>
@@ -4544,7 +4418,7 @@
         <v>0.0032822743911007702</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="H103" s="0">
         <v>0.70062935422379824</v>
@@ -4564,7 +4438,7 @@
         <v>15.0908</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="E104" s="0">
         <v>0.0042743630863318399</v>
@@ -4573,7 +4447,7 @@
         <v>0.0023982562861913047</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="H104" s="0">
         <v>0.73854317647145618</v>
@@ -4593,7 +4467,7 @@
         <v>28.0853</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="E105" s="0">
         <v>0.0041065216038842544</v>
@@ -4602,7 +4476,7 @@
         <v>0.0044633649160129791</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="H105" s="0">
         <v>0.55767043003061645</v>
@@ -4622,7 +4496,7 @@
         <v>25.668399999999998</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="E106" s="0">
         <v>0.0035694288600519818</v>
@@ -4631,7 +4505,7 @@
         <v>0.0040792669478405975</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="H106" s="0">
         <v>0.69933770585756738</v>
@@ -4651,7 +4525,7 @@
         <v>26.363600000000002</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="E107" s="0">
         <v>0.003356829648951707</v>
@@ -4660,7 +4534,7 @@
         <v>0.0041897493457360175</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>438</v>
+        <v>395</v>
       </c>
       <c r="H107" s="0">
         <v>0.17015070015364805</v>
@@ -4680,7 +4554,7 @@
         <v>10.5602</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="E108" s="0">
         <v>0.003267314191646328</v>
@@ -4689,7 +4563,7 @@
         <v>0.0016782454232669851</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="H108" s="0">
         <v>0.93741297276069802</v>
@@ -4709,7 +4583,7 @@
         <v>25.979299999999999</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="E109" s="0">
         <v>0.0032225564629936383</v>
@@ -4718,7 +4592,7 @@
         <v>0.0041286757187060834</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="H109" s="0">
         <v>-0.23133131467342458</v>
@@ -4738,7 +4612,7 @@
         <v>27.080200000000001</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="E110" s="0">
         <v>0.0030547149805460532</v>
@@ -4747,7 +4621,7 @@
         <v>0.0043036326689981832</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="H110" s="0">
         <v>0.11211558782498575</v>
@@ -4767,7 +4641,7 @@
         <v>28.432200000000002</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="E111" s="0">
         <v>0.0029428206589143299</v>
@@ -4776,7 +4650,7 @@
         <v>0.004518494869738412</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="H111" s="0">
         <v>0.72620767801055075</v>
@@ -4796,7 +4670,7 @@
         <v>27.3705</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="E112" s="0">
         <v>0.0028868734980984677</v>
@@ -4805,7 +4679,7 @@
         <v>0.0043497676518938107</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="H112" s="0">
         <v>0.079155516139970863</v>
@@ -4825,7 +4699,7 @@
         <v>21.4739</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="E113" s="0">
         <v>0.002830926337282606</v>
@@ -4834,7 +4708,7 @@
         <v>0.0034126696837837268</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="H113" s="0">
         <v>1.1338191320909947</v>
@@ -4854,7 +4728,7 @@
         <v>19.9879</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E114" s="0">
         <v>0.0028085474729562612</v>
@@ -4863,7 +4737,7 @@
         <v>0.003176511969064807</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="H114" s="0">
         <v>0.084830262216612703</v>
@@ -4883,7 +4757,7 @@
         <v>10.0336</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="E115" s="0">
         <v>0.0021707498396554372</v>
@@ -4892,7 +4766,7 @@
         <v>0.0015945572317656504</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="H115" s="0">
         <v>0.43693061186616605</v>
@@ -4912,7 +4786,7 @@
         <v>13.788</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="E116" s="0">
         <v>0.0021148026788395751</v>
@@ -4921,7 +4795,7 @@
         <v>0.0021912130353596705</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="H116" s="0">
         <v>0.81790485090267262</v>
@@ -4941,7 +4815,7 @@
         <v>8.4384999999999994</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="E117" s="0">
         <v>0.0020924238145132307</v>
@@ -4950,7 +4824,7 @@
         <v>0.001341061154546169</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
       <c r="H117" s="0">
         <v>0.72217345416432099</v>
@@ -4970,7 +4844,7 @@
         <v>7.056</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="E118" s="0">
         <v>0.0015777099350073021</v>
@@ -4979,7 +4853,7 @@
         <v>0.0011213518405495963</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>449</v>
+        <v>406</v>
       </c>
       <c r="H118" s="0">
         <v>0.32699953049285396</v>
@@ -4999,7 +4873,7 @@
         <v>9.1180000000000003</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>284</v>
+        <v>172</v>
       </c>
       <c r="E119" s="0">
         <v>0.0014993839098650958</v>
@@ -5008,7 +4882,7 @@
         <v>0.0014490484810276672</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="H119" s="0">
         <v>0.14766454129606885</v>
@@ -5028,7 +4902,7 @@
         <v>10.236000000000001</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="E120" s="0">
         <v>0.0014322473168860617</v>
@@ -5037,7 +4911,7 @@
         <v>0.001626722993178241</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="H120" s="0">
         <v>0.86944053162983315</v>
@@ -5057,7 +4931,7 @@
         <v>3.7780999999999998</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E121" s="0">
         <v>0.0013986790203965444</v>
@@ -5066,7 +4940,7 @@
         <v>0.0006004222489768182</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="H121" s="0">
         <v>0.2302767692860771</v>
@@ -5086,7 +4960,7 @@
         <v>10.718400000000001</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="E122" s="0">
         <v>0.0013763001560702</v>
@@ -5095,7 +4969,7 @@
         <v>0.0017033868435015298</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="H122" s="0">
         <v>0.6272276301222921</v>
@@ -5115,7 +4989,7 @@
         <v>7.4147999999999996</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="E123" s="0">
         <v>0.0013539212917438551</v>
@@ -5124,7 +4998,7 @@
         <v>0.001178372963053734</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="H123" s="0">
         <v>-0.56762957544846893</v>
@@ -5144,7 +5018,7 @@
         <v>5.9447000000000001</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="E124" s="0">
         <v>0.0013091635630911656</v>
@@ -5153,7 +5027,7 @@
         <v>0.00094474210409795708</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="H124" s="0">
         <v>0.25302738043191847</v>
@@ -5173,7 +5047,7 @@
         <v>11.2971</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="E125" s="0">
         <v>0.001286784698764821</v>
@@ -5182,7 +5056,7 @@
         <v>0.0017953548579751762</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>456</v>
+        <v>413</v>
       </c>
       <c r="H125" s="0">
         <v>0.068404776639876361</v>
@@ -5202,7 +5076,7 @@
         <v>2.5171000000000001</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="E126" s="0">
         <v>0.0012644058344384763</v>
@@ -5211,7 +5085,7 @@
         <v>0.00040002192713256649</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="H126" s="0">
         <v>0.27144629381382013</v>
@@ -5231,7 +5105,7 @@
         <v>4.3052000000000001</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="E127" s="0">
         <v>0.00095110173386965026</v>
@@ -5240,7 +5114,7 @@
         <v>0.00068418990135120784</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="H127" s="0">
         <v>-0.51679178207601073</v>
@@ -5260,7 +5134,7 @@
         <v>10.625500000000001</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="E128" s="0">
         <v>0.00093991230170647794</v>
@@ -5269,7 +5143,7 @@
         <v>0.0016886230132879445</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>459</v>
+        <v>416</v>
       </c>
       <c r="H128" s="0">
         <v>0.14901587992271798</v>
@@ -5289,7 +5163,7 @@
         <v>9.5738000000000003</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="E129" s="0">
         <v>0.00083920741223792675</v>
@@ -5298,7 +5172,7 @@
         <v>0.0015214850129044396</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>460</v>
+        <v>417</v>
       </c>
       <c r="H129" s="0">
         <v>0.2135992058054752</v>
@@ -5318,7 +5192,7 @@
         <v>5.7775999999999996</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="E130" s="0">
         <v>0.00074969195493254789</v>
@@ -5327,7 +5201,7 @@
         <v>0.00091818628032303679</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="H130" s="0">
         <v>-0.32754501569727223</v>
@@ -5347,7 +5221,7 @@
         <v>3.9075000000000002</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="E131" s="0">
         <v>0.00072731309060620314</v>
@@ -5356,7 +5230,7 @@
         <v>0.0006209867229234053</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>462</v>
+        <v>419</v>
       </c>
       <c r="H131" s="0">
         <v>-0.11021742009039427</v>
@@ -5376,7 +5250,7 @@
         <v>3.7488000000000001</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="E132" s="0">
         <v>0.00069374479411668608</v>
@@ -5385,7 +5259,7 @@
         <v>0.00059576584181580603</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="H132" s="0">
         <v>0.16244983625495099</v>
@@ -5405,7 +5279,7 @@
         <v>5.0335000000000001</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E133" s="0">
         <v>0.0005930399046481349</v>
@@ -5414,7 +5288,7 @@
         <v>0.00079993260904285624</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>464</v>
+        <v>421</v>
       </c>
       <c r="H133" s="0">
         <v>0.24276559492177016</v>
@@ -5434,7 +5308,7 @@
         <v>1.0892999999999999</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="E134" s="0">
         <v>0.00058185047248496247</v>
@@ -5443,7 +5317,7 @@
         <v>0.00017311345803722723</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>465</v>
+        <v>422</v>
       </c>
       <c r="H134" s="0">
         <v>0.13159763361415475</v>
@@ -5463,7 +5337,7 @@
         <v>0.60160000000000002</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="E135" s="0">
         <v>0.00057066104032179015</v>
@@ -5472,7 +5346,7 @@
         <v>9.5607322459557423e-05</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>466</v>
+        <v>423</v>
       </c>
       <c r="H135" s="0">
         <v>0.59234921469653268</v>
@@ -5492,7 +5366,7 @@
         <v>1.5130999999999999</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="E136" s="0">
         <v>0.00054828217599544541</v>
@@ -5501,7 +5375,7 @@
         <v>0.00024046449403849124</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="H136" s="0">
         <v>0.089921963603333321</v>
@@ -5521,7 +5395,7 @@
         <v>1.6193</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="E137" s="0">
         <v>0.00050352444734275603</v>
@@ -5530,7 +5404,7 @@
         <v>0.00025734198347533466</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="H137" s="0">
         <v>0.3874411900606286</v>
@@ -5550,7 +5424,7 @@
         <v>4.6257999999999999</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="E138" s="0">
         <v>0.00050352444734275603</v>
@@ -5559,7 +5433,7 @@
         <v>0.00073514021315395728</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="H138" s="0">
         <v>0.240753945879214</v>
@@ -5579,7 +5453,7 @@
         <v>3.0914000000000001</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c r="E139" s="0">
         <v>0.00048114558301641129</v>
@@ -5588,7 +5462,7 @@
         <v>0.00049129068592333085</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="H139" s="0">
         <v>-0.40914886225864822</v>
@@ -5608,7 +5482,7 @@
         <v>0.61680000000000001</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E140" s="0">
         <v>0.00034687239705834304</v>
@@ -5617,7 +5491,7 @@
         <v>9.8022933000423899e-05</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="H140" s="0">
         <v>0.34655728866497443</v>
@@ -5637,7 +5511,7 @@
         <v>1.7859</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="E141" s="0">
         <v>0.00034687239705834304</v>
@@ -5646,7 +5520,7 @@
         <v>0.00028381834637720017</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="H141" s="0">
         <v>0.055899021310438946</v>
@@ -5666,7 +5540,7 @@
         <v>0.2641</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="E142" s="0">
         <v>0.00031330410056882598</v>
@@ -5675,7 +5549,7 @@
         <v>4.1971233147555043e-05</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="H142" s="0">
         <v>0.71915209724290108</v>
@@ -5695,7 +5569,7 @@
         <v>0.92259999999999998</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="E143" s="0">
         <v>0.00027973580407930892</v>
@@ -5704,7 +5578,7 @@
         <v>0.00014662120296075079</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="H143" s="0">
         <v>0.30731389204643983</v>
@@ -5724,7 +5598,7 @@
         <v>1.8357000000000001</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="E144" s="0">
         <v>0.00024616750758979186</v>
@@ -5733,7 +5607,7 @@
         <v>0.00029173264933346005</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="H144" s="0">
         <v>0.48021271782710806</v>
@@ -5753,7 +5627,7 @@
         <v>0.18290000000000001</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="E145" s="0">
         <v>0.00024616750758979186</v>
@@ -5762,7 +5636,7 @@
         <v>2.9066787363452546e-05</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="H145" s="0">
         <v>0.37562552046413727</v>
@@ -5782,7 +5656,7 @@
         <v>1.4431</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>311</v>
+        <v>170</v>
       </c>
       <c r="E146" s="0">
         <v>0.00024616750758979186</v>
@@ -5791,7 +5665,7 @@
         <v>0.0002293399718108167</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="H146" s="0">
         <v>0.068659315457987216</v>
@@ -5811,7 +5685,7 @@
         <v>1.0569</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="E147" s="0">
         <v>0.00023497807542661948</v>
@@ -5820,7 +5694,7 @@
         <v>0.00016796439346327498</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="H147" s="0">
         <v>0.27547353634304195</v>
@@ -5840,7 +5714,7 @@
         <v>2.3637000000000001</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="E148" s="0">
         <v>0.00023497807542661948</v>
@@ -5849,7 +5723,7 @@
         <v>0.00037564333127934819</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="H148" s="0">
         <v>0.26529002884984559</v>
@@ -5869,7 +5743,7 @@
         <v>0.1623</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="E149" s="0">
         <v>0.00023497807542661948</v>
@@ -5878,7 +5752,7 @@
         <v>2.5792999393594028e-05</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="H149" s="0">
         <v>0.15043940536722961</v>
@@ -5898,7 +5772,7 @@
         <v>0.58809999999999996</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="E150" s="0">
         <v>0.00017903091461075771</v>
@@ -5907,7 +5781,7 @@
         <v>9.3461878887077311e-05</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="H150" s="0">
         <v>-0.014027019212060707</v>
@@ -5927,7 +5801,7 @@
         <v>2.4055</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="E151" s="0">
         <v>0.00017903091461075771</v>
@@ -5936,7 +5810,7 @@
         <v>0.00038228626026673104</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="H151" s="0">
         <v>0.29663565352347321</v>
@@ -5956,7 +5830,7 @@
         <v>0.15110000000000001</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="E152" s="0">
         <v>0.00016784148244758533</v>
@@ -5965,7 +5839,7 @@
         <v>2.4013075837166101e-05</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="H152" s="0">
         <v>0.26972607984976199</v>
@@ -5985,7 +5859,7 @@
         <v>3.8374000000000001</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="E153" s="0">
         <v>0.00015665205028441299</v>
@@ -5994,7 +5868,7 @@
         <v>0.00060984630852111972</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="H153" s="0">
         <v>0.82748906469061168</v>
@@ -6014,7 +5888,7 @@
         <v>1.7233000000000001</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="E154" s="0">
         <v>0.00013427318595806827</v>
@@ -6023,7 +5897,7 @@
         <v>0.0002738698450707369</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="H154" s="0">
         <v>0.23462778784483634</v>
@@ -6043,7 +5917,7 @@
         <v>1.6229</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="E155" s="0">
         <v>0.00013427318595806827</v>
@@ -6052,7 +5926,7 @@
         <v>0.00025791410176132933</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="H155" s="0">
         <v>-0.32577783492304296</v>
@@ -6072,7 +5946,7 @@
         <v>0.24529999999999999</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="E156" s="0">
         <v>0.00013427318595806827</v>
@@ -6081,7 +5955,7 @@
         <v>3.8983504320693872e-05</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="H156" s="0">
         <v>-0.16834939819254224</v>
@@ -6101,7 +5975,7 @@
         <v>0.99890000000000001</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="E157" s="0">
         <v>0.00012308375379489593</v>
@@ -6110,7 +5984,7 @@
         <v>0.00015874693218891607</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="H157" s="0">
         <v>1.0506144869929821</v>
@@ -6130,7 +6004,7 @@
         <v>0.17380000000000001</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="E158" s="0">
         <v>0.00012308375379489593</v>
@@ -6139,7 +6013,7 @@
         <v>2.7620599473854854e-05</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="H158" s="0">
         <v>-0.070482207141940159</v>
@@ -6159,7 +6033,7 @@
         <v>1.1947000000000001</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="E159" s="0">
         <v>0.00012308375379489593</v>
@@ -6168,7 +6042,7 @@
         <v>0.00018986381007718293</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="H159" s="0">
         <v>-0.081673973890721119</v>
@@ -6188,7 +6062,7 @@
         <v>2.3515999999999999</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E160" s="0">
         <v>0.00011189432163172357</v>
@@ -6197,7 +6071,7 @@
         <v>0.0003737203781514216</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="H160" s="0">
         <v>0.30001995166284529</v>
@@ -6217,7 +6091,7 @@
         <v>1.5742</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="E161" s="0">
         <v>0.00011189432163172357</v>
@@ -6226,7 +6100,7 @@
         <v>0.00025017461272579006</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="H161" s="0">
         <v>0.21179322636197406</v>
@@ -6246,7 +6120,7 @@
         <v>0.38279999999999997</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="E162" s="0">
         <v>0.00011189432163172357</v>
@@ -6255,7 +6129,7 @@
         <v>6.0835244410768916e-05</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="H162" s="0">
         <v>0.33110967616154552</v>
@@ -6275,7 +6149,7 @@
         <v>1.2747999999999999</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="E163" s="0">
         <v>0.00011189432163172357</v>
@@ -6284,7 +6158,7 @@
         <v>0.00020259344194056484</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="H163" s="0">
         <v>0.25554287112294033</v>
@@ -6304,7 +6178,7 @@
         <v>0.59340000000000004</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="E164" s="0">
         <v>0.00011189432163172357</v>
@@ -6313,7 +6187,7 @@
         <v>9.4304164141458411e-05</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>495</v>
+        <v>452</v>
       </c>
       <c r="H164" s="0">
         <v>0.22454386883875879</v>
